--- a/final_data_pipeline/output/325212_elec_options.xlsx
+++ b/final_data_pipeline/output/325212_elec_options.xlsx
@@ -804,7 +804,7 @@
         <v>74</v>
       </c>
       <c r="AD2">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE2">
         <v>8000</v>
@@ -899,7 +899,7 @@
         <v>74</v>
       </c>
       <c r="AD3">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE3">
         <v>8000</v>
@@ -994,7 +994,7 @@
         <v>74</v>
       </c>
       <c r="AD4">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE4">
         <v>8000</v>
@@ -1089,7 +1089,7 @@
         <v>74</v>
       </c>
       <c r="AD5">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE5">
         <v>8000</v>
@@ -1184,7 +1184,7 @@
         <v>74</v>
       </c>
       <c r="AD6">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE6">
         <v>8000</v>
@@ -1279,7 +1279,7 @@
         <v>74</v>
       </c>
       <c r="AD7">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE7">
         <v>8000</v>
@@ -1374,7 +1374,7 @@
         <v>74</v>
       </c>
       <c r="AD8">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE8">
         <v>8000</v>
@@ -1469,7 +1469,7 @@
         <v>74</v>
       </c>
       <c r="AD9">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE9">
         <v>8000</v>
@@ -1564,7 +1564,7 @@
         <v>74</v>
       </c>
       <c r="AD10">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE10">
         <v>8000</v>
@@ -1659,7 +1659,7 @@
         <v>74</v>
       </c>
       <c r="AD11">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE11">
         <v>8000</v>
@@ -1754,7 +1754,7 @@
         <v>74</v>
       </c>
       <c r="AD12">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE12">
         <v>8000</v>
@@ -1849,7 +1849,7 @@
         <v>74</v>
       </c>
       <c r="AD13">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE13">
         <v>8000</v>
@@ -4224,7 +4224,7 @@
         <v>74</v>
       </c>
       <c r="AD38">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE38">
         <v>8000</v>
@@ -4319,7 +4319,7 @@
         <v>74</v>
       </c>
       <c r="AD39">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE39">
         <v>8000</v>
@@ -4414,7 +4414,7 @@
         <v>74</v>
       </c>
       <c r="AD40">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE40">
         <v>8000</v>
@@ -4509,7 +4509,7 @@
         <v>74</v>
       </c>
       <c r="AD41">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE41">
         <v>8000</v>
@@ -4604,7 +4604,7 @@
         <v>74</v>
       </c>
       <c r="AD42">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE42">
         <v>8000</v>
@@ -4699,7 +4699,7 @@
         <v>74</v>
       </c>
       <c r="AD43">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE43">
         <v>8000</v>
@@ -4794,7 +4794,7 @@
         <v>74</v>
       </c>
       <c r="AD44">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE44">
         <v>8000</v>
@@ -4889,7 +4889,7 @@
         <v>74</v>
       </c>
       <c r="AD45">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE45">
         <v>8000</v>
@@ -4984,7 +4984,7 @@
         <v>74</v>
       </c>
       <c r="AD46">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE46">
         <v>8000</v>
@@ -5079,7 +5079,7 @@
         <v>74</v>
       </c>
       <c r="AD47">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE47">
         <v>8000</v>
@@ -5174,7 +5174,7 @@
         <v>74</v>
       </c>
       <c r="AD48">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE48">
         <v>8000</v>
@@ -5269,7 +5269,7 @@
         <v>74</v>
       </c>
       <c r="AD49">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE49">
         <v>8000</v>
@@ -5364,7 +5364,7 @@
         <v>74</v>
       </c>
       <c r="AD50">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE50">
         <v>8000</v>
@@ -5459,7 +5459,7 @@
         <v>74</v>
       </c>
       <c r="AD51">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE51">
         <v>8000</v>
@@ -5554,7 +5554,7 @@
         <v>74</v>
       </c>
       <c r="AD52">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE52">
         <v>8000</v>
@@ -5649,7 +5649,7 @@
         <v>74</v>
       </c>
       <c r="AD53">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE53">
         <v>8000</v>
@@ -7264,7 +7264,7 @@
         <v>74</v>
       </c>
       <c r="AD70">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE70">
         <v>8000</v>
@@ -7359,7 +7359,7 @@
         <v>74</v>
       </c>
       <c r="AD71">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE71">
         <v>8000</v>
@@ -7454,7 +7454,7 @@
         <v>74</v>
       </c>
       <c r="AD72">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE72">
         <v>8000</v>
@@ -7549,7 +7549,7 @@
         <v>74</v>
       </c>
       <c r="AD73">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE73">
         <v>8000</v>
